--- a/Simulaciones.xlsx
+++ b/Simulaciones.xlsx
@@ -18,8 +18,10 @@
     <sheet name="Random Forest" sheetId="7" r:id="rId4"/>
     <sheet name="SVM" sheetId="8" r:id="rId5"/>
     <sheet name="SFS" sheetId="9" r:id="rId6"/>
+    <sheet name="PCA" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="308">
   <si>
     <t>linear</t>
   </si>
@@ -292,102 +294,6 @@
 4) 0,89034   </t>
   </si>
   <si>
-    <t>+-0,021127</t>
-  </si>
-  <si>
-    <t>1) 0,86601     
-2) 0,85313     
-3) 0,97907     
-4) 0,89355</t>
-  </si>
-  <si>
-    <t>1) 0,94097     
-2) 0,76578     
-3) 0,93387       
-4) 0,862</t>
-  </si>
-  <si>
-    <t>+-0,011042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) 0,93249     
-2) 0,94943 
-3) 0,9827     
-4) 0,94139     </t>
-  </si>
-  <si>
-    <t>1) 0,97149      
-2) 0,9421     
-3) 0,94894     
-4) 0,90387</t>
-  </si>
-  <si>
-    <t>+-0,01669</t>
-  </si>
-  <si>
-    <t>1) 0,95071     
-2) 0,93933     
-3) 0,96906     
-4) 0,96486</t>
-  </si>
-  <si>
-    <t>1) 0,95818     
-2) 0,94714     
-3) 0,96867     
-4) 0,89196</t>
-  </si>
-  <si>
-    <t>+-0,016727</t>
-  </si>
-  <si>
-    <t>1) 0,93989     
-2) 0,94048     
-3) 0,95841     
-4) 0,97059</t>
-  </si>
-  <si>
-    <t>1) 0,94488     
-2) 0,90683     
-3) 0,97714     
-4) 0,90681</t>
-  </si>
-  <si>
-    <t>+-0,017174</t>
-  </si>
-  <si>
-    <t>1) 0,96729     
-2) 0,96218     
-3) 0,98098     
-4) 0,95834</t>
-  </si>
-  <si>
-    <t>1) 0,97444      
-2) 0,9587     
-3) 0,97922     
-4) 0,92911</t>
-  </si>
-  <si>
-    <t>+-0,01238</t>
-  </si>
-  <si>
-    <t>1) 0,87104     
-2) 0,89319     
-3) 0,98062     
-4) 0,88369</t>
-  </si>
-  <si>
-    <t>1) 0,94664      
-2) 0,7711     
-3) 0,94739     
-4) 0,85266</t>
-  </si>
-  <si>
-    <t>1) 0,93249     
-2) 0,94943      
-3) 0,9827     
-4) 0,94139</t>
-  </si>
-  <si>
     <t>+-0,002902</t>
   </si>
   <si>
@@ -847,140 +753,656 @@
 4) 0,89337</t>
   </si>
   <si>
-    <t>K-NN</t>
-  </si>
-  <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>Epocas=50 ; Neuronas= 60</t>
-  </si>
-  <si>
-    <t>K=1</t>
-  </si>
-  <si>
-    <t># Arboles = 100</t>
-  </si>
-  <si>
-    <t>Random forest</t>
-  </si>
-  <si>
-    <t>Parámetro</t>
-  </si>
-  <si>
-    <t>Tipo Modelo</t>
+    <t xml:space="preserve">12 14 15 18 19 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89937 </t>
+  </si>
+  <si>
+    <t>+-0.0097774</t>
+  </si>
+  <si>
+    <t>0.10063</t>
+  </si>
+  <si>
+    <t>1) 0.87083     
+2) 0.86496     
+3) 0.94776     
+4) 0.87481</t>
+  </si>
+  <si>
+    <t>1) 0.90293     
+2) 0.78567     
+3) 0.95087     
+4) 0.83258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93933 </t>
+  </si>
+  <si>
+    <t>+-0.010313</t>
+  </si>
+  <si>
+    <t>0.060672</t>
+  </si>
+  <si>
+    <t>1) 0.92526     
+2) 0.93351     
+3) 0.95314     
+4) 0.96625</t>
+  </si>
+  <si>
+    <t>1) 0.94148     
+2) 0.91284     
+3) 0.95707     
+4) 0.87822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94208 </t>
+  </si>
+  <si>
+    <t>+-0.017159</t>
+  </si>
+  <si>
+    <t>0.057921</t>
+  </si>
+  <si>
+    <t>1) 0.92823     
+2) 0.92295     
+3) 0.96378     
+4) 0.95227</t>
+  </si>
+  <si>
+    <t>1) 0.94193     
+2) 0.89709       
+3) 0.969     
+4) 0.88447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 12 14 15 18 19 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97104 </t>
+  </si>
+  <si>
+    <t>+-0.013273</t>
+  </si>
+  <si>
+    <t>0.02896</t>
+  </si>
+  <si>
+    <t>1) 0.96088     
+2) 0.96514     
+3) 0.98379     
+4) 0.97744</t>
+  </si>
+  <si>
+    <t>1) 0.97642     
+2) 0.95403     
+3) 0.97997     
+4) 0.92064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96701 </t>
+  </si>
+  <si>
+    <t>+-0.0094746</t>
+  </si>
+  <si>
+    <t>0.032993</t>
+  </si>
+  <si>
+    <t>1) 0.96213     
+2) 0.95747     
+3) 0.97402     
+4) 0.98142</t>
+  </si>
+  <si>
+    <t>1) 0.96644     
+2) 0.94799     
+3) 0.97758     
+4) 0.95123</t>
+  </si>
+  <si>
+    <t>1) 0.90293      
+2) 0.78567     
+3) 0.95087     
+4) 0.83258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 13 14 15 18 19 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99707 </t>
+  </si>
+  <si>
+    <t>0.0029328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 12 14 15 18 19 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99725 </t>
+  </si>
+  <si>
+    <t>8 12 14 15 18 19 20</t>
   </si>
   <si>
     <t xml:space="preserve">0.99688 </t>
   </si>
   <si>
-    <t>+-0.0021263</t>
-  </si>
-  <si>
-    <t>0.0031162</t>
-  </si>
-  <si>
-    <t>1) 0.99819     
-2) 0.99284     
+    <t>0.0031159</t>
+  </si>
+  <si>
+    <t>1) 0.99774     
+2) 0.99402     
 3) 0.99763     
 4) 0.99403</t>
   </si>
   <si>
-    <t>1) 0.99546      
+    <t>1) 0.99592      
 2) 0.9988     
-3) 0.99857     
-4) 0.99081</t>
-  </si>
-  <si>
-    <t>0.95125</t>
-  </si>
-  <si>
-    <t>+-0.010466</t>
-  </si>
-  <si>
-    <t>0.048751</t>
-  </si>
-  <si>
-    <t>1) 0.94131     
-2) 0.95115     
-3) 0.96289     
-4) 0.95178</t>
-  </si>
-  <si>
-    <t>1) 0.95327     
-2) 0.93707     
-3) 0.95946     
-4) 0.92083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96352 </t>
-  </si>
-  <si>
-    <t>+-0.011135</t>
-  </si>
-  <si>
-    <t>0.036478</t>
-  </si>
-  <si>
-    <t>1) 0.9605     
-2) 0.93722     
-3) 0.97452     
-4) 0.98402</t>
-  </si>
-  <si>
-    <t>1) 0.95509     
-2) 0.95163     
-3) 0.98282         
-4) 0.9268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94795 </t>
-  </si>
-  <si>
-    <t>+-0.0103</t>
-  </si>
-  <si>
-    <t>0.052053</t>
-  </si>
-  <si>
-    <t>1) 0.93837     
-2) 0.94548     
-3) 0.96033     
-4) 0.94517</t>
-  </si>
-  <si>
-    <t>1) 0.94919     
-2) 0.93581     
-3) 0.95614      
-4) 0.9179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93768 </t>
-  </si>
-  <si>
-    <t>+-0.011759</t>
-  </si>
-  <si>
-    <t>0.062318</t>
-  </si>
-  <si>
-    <t>1) 0.93226     
-2) 0.91041     
-3) 0.94911     
-4) 0.97371</t>
-  </si>
-  <si>
-    <t>1) 0.92879     
-2) 0.90557     
-3) 0.96756     
-4) 0.88722</t>
+3) 0.99762     
+4) 0.99394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 12 14 15 18 19 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 12 14 15 18 19 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95546 </t>
+  </si>
+  <si>
+    <t>+-0.009689</t>
+  </si>
+  <si>
+    <t>0.044536</t>
+  </si>
+  <si>
+    <t>1) 0.94731     
+2) 0.95376     
+3) 0.96582     
+4) 0.95474</t>
+  </si>
+  <si>
+    <t>1) 0.9569     
+2) 0.94067     
+3) 0.96376     
+4) 0.93011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 19 18 15 14 12 </t>
+  </si>
+  <si>
+    <t>K - NN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9397 </t>
+  </si>
+  <si>
+    <t>+-0.0065227</t>
+  </si>
+  <si>
+    <t>0.060298</t>
+  </si>
+  <si>
+    <t>1) 0.9126     
+2) 0.96058     
+3) 0.96406     
+4) 0.93677</t>
+  </si>
+  <si>
+    <t>1) 0.96417      
+2) 0.9068     
+3) 0.93944     
+4) 0.86004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93494 </t>
+  </si>
+  <si>
+    <t>+-0.0065095</t>
+  </si>
+  <si>
+    <t>0.065064</t>
+  </si>
+  <si>
+    <t>1) 0.92082     
+2) 0.94312     
+3) 0.95016      
+4) 0.9214</t>
+  </si>
+  <si>
+    <t>1) 0.93968     
+2) 0.92006     
+3) 0.94993      
+4) 0.8447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92467 </t>
+  </si>
+  <si>
+    <t>+-0.0091136</t>
+  </si>
+  <si>
+    <t>0.07533</t>
+  </si>
+  <si>
+    <t>1) 0.9025     
+2) 0.94872     
+3) 0.93907     
+4) 0.93792</t>
+  </si>
+  <si>
+    <t>1) 0.93695     
+2) 0.91161     
+3) 0.93657     
+4) 0.79905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90121 </t>
+  </si>
+  <si>
+    <t>+-0.010014</t>
+  </si>
+  <si>
+    <t>0.098794</t>
+  </si>
+  <si>
+    <t>1) 0.87984     
+2) 0.92012     
+3) 0.92303     
+4) 0.86984</t>
+  </si>
+  <si>
+    <t>1) 0.90973     
+2) 0.87299     
+3) 0.91939     
+4) 0.79915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87317 </t>
+  </si>
+  <si>
+    <t>+-0.013305</t>
+  </si>
+  <si>
+    <t>0.12683</t>
+  </si>
+  <si>
+    <t>1) 0.85757     
+2) 0.90885     
+3) 0.89454     
+4) 0.76997</t>
+  </si>
+  <si>
+    <t>1) 0.87301     
+2) 0.81355     
+3) 0.90558     
+4) 0.81705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85007 </t>
+  </si>
+  <si>
+    <t>+-0.011074</t>
+  </si>
+  <si>
+    <t>0.14993</t>
+  </si>
+  <si>
+    <t>1) 0.82351     
+2) 0.90721     
+3) 0.88786     
+4) 0.70493</t>
+  </si>
+  <si>
+    <t>1) 0.85939     
+2) 0.79659     
+3) 0.86601     
+4) 0.82008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8202 </t>
+  </si>
+  <si>
+    <t>+-0.017007</t>
+  </si>
+  <si>
+    <t>0.1798</t>
+  </si>
+  <si>
+    <t>1) 0.78213     
+2) 0.86665     
+3) 0.87627     
+4) 0.68564</t>
+  </si>
+  <si>
+    <t>1) 0.83537      
+2) 0.7567     
+3) 0.83072     
+4) 0.81089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77529 </t>
+  </si>
+  <si>
+    <t>+-0.012842</t>
+  </si>
+  <si>
+    <t>0.22471</t>
+  </si>
+  <si>
+    <t>1) 0.74791     
+2) 0.84005     
+3) 0.80471     
+4) 0.62457</t>
+  </si>
+  <si>
+    <t>1) 0.77006     
+2) 0.71917     
+3) 0.83262     
+4) 0.58561</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>+-0.0021516</t>
+  </si>
+  <si>
+    <t>1) 0.9973      
+2) 0.9964     
+3) 0.99715     
+4) 0.99706</t>
+  </si>
+  <si>
+    <t>1) 0.99773     
+2) 0.99637     
+3) 0.99762     
+4) 0.99091</t>
+  </si>
+  <si>
+    <t>+-0.0023262</t>
+  </si>
+  <si>
+    <t>0.0027493</t>
+  </si>
+  <si>
+    <t>1) 0.99684      
+2) 0.9976     
+3) 0.99762     
+4) 0.99706</t>
+  </si>
+  <si>
+    <t>1) 0.99773     
+2) 0.99758     
+3) 0.99714     
+4) 0.99394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99762 </t>
+  </si>
+  <si>
+    <t>+-0.0021256</t>
+  </si>
+  <si>
+    <t>0.002383</t>
+  </si>
+  <si>
+    <t>1) 0.99819      
+2) 0.9964     
+3) 0.99763     
+4) 0.99706</t>
+  </si>
+  <si>
+    <t>1) 0.99728      
+2) 0.9988      
+3) 0.9981     
+4) 0.99394</t>
+  </si>
+  <si>
+    <t>+-0.0021605</t>
+  </si>
+  <si>
+    <t>0.0027496</t>
+  </si>
+  <si>
+    <t>1) 0.99774     
+2) 0.99402      
+3) 0.9981     
+4) 0.99706</t>
+  </si>
+  <si>
+    <t>1) 0.99682      
+2) 0.9988     
+3) 0.99762     
+4) 0.99394</t>
+  </si>
+  <si>
+    <t>+-0.0017395</t>
+  </si>
+  <si>
+    <t>+-0.010672</t>
+  </si>
+  <si>
+    <t>0.065063</t>
+  </si>
+  <si>
+    <t>1) 0.88828     
+2) 0.94626     
+3) 0.98573     
+4) 0.94683</t>
+  </si>
+  <si>
+    <t>1) 0.97369     
+2) 0.80873     
+3) 0.80873     
+4) 0.89015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94886 </t>
+  </si>
+  <si>
+    <t>+-0.0069938</t>
+  </si>
+  <si>
+    <t>0.051137</t>
+  </si>
+  <si>
+    <t>1) 0.92617     
+2) 0.91326       
+3) 0.988     
+4) 0.94721</t>
+  </si>
+  <si>
+    <t>1) 0.95872     
+2) 0.86682     
+3) 0.97473     
+4) 0.92367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96077 </t>
+  </si>
+  <si>
+    <t>+-0.013297</t>
+  </si>
+  <si>
+    <t>0.039225</t>
+  </si>
+  <si>
+    <t>1) 0.94632      
+2) 0.9393      
+3) 0.9838     
+4) 0.97091</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>fdsaf</t>
+  </si>
+  <si>
+    <t>fsadfsa</t>
+  </si>
+  <si>
+    <t>dfsadsa</t>
+  </si>
+  <si>
+    <t>dfa</t>
+  </si>
+  <si>
+    <t>sen</t>
+  </si>
+  <si>
+    <t>1) 0.96598     
+2) 0.93099     
+3) 0.97424     
+4) 0.91458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9386 </t>
+  </si>
+  <si>
+    <t>+-0.010498</t>
+  </si>
+  <si>
+    <t>0.061403</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.92366     </t>
+  </si>
+  <si>
+    <t>1) 0.94206     
+2) 0.92366     
+3) 0.93683       
+4) 0.973</t>
+  </si>
+  <si>
+    <t>1) 0.9179     
+2) 0.91527     
+3) 0.97758     
+4) 0.88712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95124 </t>
+  </si>
+  <si>
+    <t>+-0.0092963</t>
+  </si>
+  <si>
+    <t>0.048757</t>
+  </si>
+  <si>
+    <t>1) 0.94822     
+2) 0.94607     
+3) 0.95341     
+4) 0.97646</t>
+  </si>
+  <si>
+    <t>1) 0.94329     
+2) 0.92981     
+3) 0.97949     
+4) 0.87794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93567 </t>
+  </si>
+  <si>
+    <t>+-0.0079626</t>
+  </si>
+  <si>
+    <t>0.06433</t>
+  </si>
+  <si>
+    <t>1) 0.88758     
+2) 0.94734      
+3) 0.9867     
+4) 0.95644</t>
+  </si>
+  <si>
+    <t>1) 0.97505     
+2) 0.80386     
+3) 0.95136     
+4) 0.90246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95363 </t>
+  </si>
+  <si>
+    <t>+-0.010467</t>
+  </si>
+  <si>
+    <t>0.046369</t>
+  </si>
+  <si>
+    <t>1) 0.9294     
+2) 0.93561     
+3) 0.98801      
+4) 0.9537</t>
+  </si>
+  <si>
+    <t>1) 0.96598     
+2) 0.88127     
+3) 0.97329      
+4) 0.9267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96408 </t>
+  </si>
+  <si>
+    <t>+-0.0085616</t>
+  </si>
+  <si>
+    <t>0.035924</t>
+  </si>
+  <si>
+    <t>1) 0.94867     
+2) 0.94468     
+3) 0.98478     
+4) 0.98998</t>
+  </si>
+  <si>
+    <t>1) 0.96961     
+2) 0.92367     
+3) 0.98187     
+4) 0.91458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95674 </t>
+  </si>
+  <si>
+    <t>+-0.0071556</t>
+  </si>
+  <si>
+    <t>0.043257</t>
+  </si>
+  <si>
+    <t>1) 0.95382     
+2) 0.94739     
+3) 0.96004     
+4) 0.98364</t>
+  </si>
+  <si>
+    <t>1) 0.95011     
+2) 0.93585     
+3) 0.97997     
+4) 0.90549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 0.97505     
+2) 0.80386  
+3) 0.95136     
+4) 0.90246   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,13 +1411,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1030,7 +1445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1045,11 +1460,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1061,10 +1482,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1382,7 +1802,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1523,7 +1943,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1742,31 +2162,31 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="J11" s="9"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J12" s="9"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J13" s="9"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J14" s="9"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J15" s="9"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J16" s="9"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J17" s="9"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J18" s="9"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J19" s="9"/>
+      <c r="J19" s="7"/>
     </row>
   </sheetData>
   <sortState ref="J11:J19">
@@ -1778,10 +2198,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9670386-258C-4F41-9481-204E30C1B775}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1791,11 +2211,10 @@
     <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -1817,463 +2236,508 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
         <v>50</v>
       </c>
       <c r="B2" s="4">
         <v>10</v>
       </c>
-      <c r="C2" s="4">
-        <v>0.90744000000000002</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="4">
-        <v>9.2561000000000004E-2</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
       <c r="B3" s="4">
         <v>22</v>
       </c>
-      <c r="C3" s="4">
-        <v>0.95435999999999999</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="4">
-        <v>4.5643000000000003E-2</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
       <c r="B4" s="4">
         <v>34</v>
       </c>
-      <c r="C4" s="4">
-        <v>0.95692999999999995</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="4">
-        <v>4.3075000000000002E-2</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
       <c r="B5" s="4">
         <v>48</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.94923000000000002</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5.0772999999999999E-2</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
       <c r="B6" s="4">
         <v>60</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.97177000000000002</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2.8228E-2</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="C6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>100</v>
       </c>
       <c r="B7" s="4">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.91513999999999995</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="4">
-        <v>8.4861000000000006E-2</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
       <c r="B8" s="4">
         <v>22</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.95435999999999999</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4.5643000000000003E-2</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
       <c r="B9" s="4">
         <v>34</v>
       </c>
-      <c r="C9" s="4">
-        <v>0.95692999999999995</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4.3075000000000002E-2</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
       <c r="B10" s="4">
         <v>48</v>
       </c>
-      <c r="C10" s="4">
-        <v>0.94923000000000002</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5.0772999999999999E-2</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="C10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
       <c r="B11" s="4">
         <v>60</v>
       </c>
-      <c r="C11" s="4">
-        <v>0.97177000000000002</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2.8228E-2</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="C11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
         <v>400</v>
       </c>
       <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
-        <v>0.91513999999999995</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="4">
-        <v>8.4861000000000006E-2</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
       <c r="B13" s="4">
         <v>22</v>
       </c>
-      <c r="C13" s="4">
-        <v>0.95435999999999999</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="4">
-        <v>4.5643000000000003E-2</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
       <c r="B14" s="4">
         <v>34</v>
       </c>
-      <c r="C14" s="4">
-        <v>0.95692999999999995</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4.3075000000000002E-2</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
       <c r="B15" s="4">
         <v>48</v>
       </c>
-      <c r="C15" s="4">
-        <v>0.94923000000000002</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="4">
-        <v>5.0772999999999999E-2</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
       <c r="B16" s="4">
         <v>60</v>
       </c>
-      <c r="C16" s="4">
-        <v>0.97177000000000002</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2.8228E-2</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
         <v>800</v>
       </c>
       <c r="B17" s="4">
         <v>10</v>
       </c>
-      <c r="C17" s="4">
-        <v>0.91513999999999995</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="4">
-        <v>8.4861000000000006E-2</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
       <c r="B18" s="4">
         <v>22</v>
       </c>
-      <c r="C18" s="4">
-        <v>0.95435999999999999</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="4">
-        <v>4.5643000000000003E-2</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
       <c r="B19" s="4">
         <v>34</v>
       </c>
-      <c r="C19" s="4">
-        <v>0.95692999999999995</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="4">
-        <v>4.3075000000000002E-2</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
       <c r="B20" s="4">
         <v>48</v>
       </c>
-      <c r="C20" s="4">
-        <v>0.94923000000000002</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="4">
-        <v>5.0772999999999999E-2</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="C20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
       <c r="B21" s="4">
         <v>60</v>
       </c>
-      <c r="C21" s="4">
-        <v>0.97177000000000002</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2.8228E-2</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.3">
@@ -2326,7 +2790,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2359,16 +2823,16 @@
         <v>0.99358000000000002</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>6.4155999999999996E-3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -2379,16 +2843,16 @@
         <v>0.99431999999999998</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>5.6826999999999997E-3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -2399,16 +2863,16 @@
         <v>0.99450000000000005</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>5.4992000000000001E-3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -2419,16 +2883,16 @@
         <v>0.99431999999999998</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>5.6823999999999998E-3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -2439,16 +2903,16 @@
         <v>0.99431999999999998</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>5.6826999999999997E-3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -2459,20 +2923,21 @@
         <v>0.99504999999999999</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <v>4.9497999999999999E-3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2510,538 +2975,538 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="13">
         <v>0.01</v>
       </c>
       <c r="B2" s="1">
         <v>0.01</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>0.41019</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="D2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="6">
         <v>0.58980999999999995</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1">
         <v>0.1</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>0.46371000000000001</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="6">
         <v>0.53629000000000004</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>0.69355</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="6">
         <v>0.30645</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1">
         <v>10</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>0.72323999999999999</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="6">
         <v>0.27676000000000001</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1">
         <v>100</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>0.60758000000000001</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="6">
         <v>0.39241999999999999</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="13">
         <v>0.1</v>
       </c>
       <c r="B7" s="1">
         <v>0.01</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>0.49285000000000001</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="6">
         <v>0.50714999999999999</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1">
         <v>0.1</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>0.66752999999999996</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="6">
         <v>0.33246999999999999</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>0.79857999999999996</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="6">
         <v>0.20141999999999999</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>0.84641</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="6">
         <v>0.15359</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="1">
         <v>100</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>0.69813000000000003</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="6">
         <v>0.30187000000000003</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="13">
         <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>0.01</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>0.58101000000000003</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="6">
         <v>0.41898999999999997</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="1">
         <v>0.1</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>0.72618000000000005</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="6">
         <v>0.27382000000000001</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>0.86089000000000004</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="D14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="6">
         <v>0.13911000000000001</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>0.90176000000000001</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="D15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="6">
         <v>9.8236000000000004E-2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="1">
         <v>100</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>0.7883</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="D16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="6">
         <v>0.2117</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="13">
         <v>10</v>
       </c>
       <c r="B17" s="1">
         <v>0.01</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>0.58338999999999996</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D17" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="6">
         <v>0.41660999999999998</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="1">
         <v>0.1</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>0.74011000000000005</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="D18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="6">
         <v>0.25989000000000001</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>0.87683999999999995</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="D19" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="6">
         <v>0.12316000000000001</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="1">
         <v>10</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>0.92742000000000002</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="D20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="6">
         <v>7.2576000000000002E-2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="1">
         <v>100</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>0.86363999999999996</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="D21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="6">
         <v>0.13636000000000001</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="13">
         <v>100</v>
       </c>
       <c r="B22" s="1">
         <v>0.01</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>0.58467999999999998</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="D22" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="6">
         <v>0.41532000000000002</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="1">
         <v>0.1</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>0.74158000000000002</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="D23" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="6">
         <v>0.25841999999999998</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <v>0.87592000000000003</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="D24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="6">
         <v>0.12408</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="1">
         <v>10</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <v>0.92834000000000005</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="D25" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="6">
         <v>7.1662000000000003E-2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="1">
         <v>100</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <v>0.90432999999999997</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="8">
+      <c r="D26" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="6">
         <v>9.5671000000000006E-2</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3059,304 +3524,924 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B46F55-8DD8-47CD-ADC8-14B240A23EDA}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>246</v>
+      </c>
+      <c r="K5" t="s">
+        <v>247</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6">
+        <v>40</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" t="s">
+        <v>255</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11">
+        <v>50</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11">
+        <v>100</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I14" s="12">
+        <v>50</v>
+      </c>
+      <c r="J14" s="4">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>203</v>
+      </c>
+      <c r="L14" t="s">
+        <v>256</v>
+      </c>
+      <c r="M14" t="s">
+        <v>257</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="4">
+        <v>22</v>
+      </c>
+      <c r="K15" t="s">
+        <v>260</v>
+      </c>
+      <c r="L15" t="s">
+        <v>261</v>
+      </c>
+      <c r="M15" t="s">
+        <v>262</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="4">
+        <v>34</v>
+      </c>
+      <c r="K16" t="s">
+        <v>265</v>
+      </c>
+      <c r="L16" t="s">
+        <v>266</v>
+      </c>
+      <c r="M16" t="s">
+        <v>267</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="4">
+        <v>48</v>
+      </c>
+      <c r="K17" t="s">
+        <v>282</v>
+      </c>
+      <c r="L17" t="s">
+        <v>283</v>
+      </c>
+      <c r="M17" t="s">
+        <v>284</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="4">
+        <v>60</v>
+      </c>
+      <c r="K18" t="s">
+        <v>276</v>
+      </c>
+      <c r="L18" t="s">
+        <v>277</v>
+      </c>
+      <c r="M18" t="s">
+        <v>279</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="I19" s="12">
+        <v>100</v>
+      </c>
+      <c r="J19" s="4">
+        <v>10</v>
+      </c>
+      <c r="K19" t="s">
+        <v>287</v>
+      </c>
+      <c r="L19" t="s">
+        <v>288</v>
+      </c>
+      <c r="M19" t="s">
+        <v>289</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="I20" s="12"/>
+      <c r="J20" s="4">
+        <v>22</v>
+      </c>
+      <c r="K20" t="s">
+        <v>292</v>
+      </c>
+      <c r="L20" t="s">
+        <v>293</v>
+      </c>
+      <c r="M20" t="s">
+        <v>294</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="I21" s="12"/>
+      <c r="J21" s="4">
+        <v>34</v>
+      </c>
+      <c r="K21" t="s">
+        <v>297</v>
+      </c>
+      <c r="L21" t="s">
+        <v>298</v>
+      </c>
+      <c r="M21" t="s">
+        <v>299</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="4">
+        <v>48</v>
+      </c>
+      <c r="K22" t="s">
+        <v>302</v>
+      </c>
+      <c r="L22" t="s">
+        <v>303</v>
+      </c>
+      <c r="M22" t="s">
+        <v>304</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="4">
+        <v>60</v>
+      </c>
+      <c r="K23" t="s">
+        <v>276</v>
+      </c>
+      <c r="L23" t="s">
+        <v>277</v>
+      </c>
+      <c r="M23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" s="12">
+        <v>400</v>
+      </c>
+      <c r="J24" s="4">
+        <v>10</v>
+      </c>
+      <c r="K24" t="s">
+        <v>287</v>
+      </c>
+      <c r="L24" t="s">
+        <v>288</v>
+      </c>
+      <c r="M24" t="s">
+        <v>289</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>202</v>
+      <c r="I25" s="12"/>
+      <c r="J25" s="4">
+        <v>22</v>
+      </c>
+      <c r="K25" t="s">
+        <v>292</v>
+      </c>
+      <c r="L25" t="s">
+        <v>293</v>
+      </c>
+      <c r="M25" t="s">
+        <v>294</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I26" s="12"/>
+      <c r="J26" s="4">
+        <v>34</v>
+      </c>
+      <c r="K26" t="s">
+        <v>297</v>
+      </c>
+      <c r="L26" t="s">
+        <v>298</v>
+      </c>
+      <c r="M26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I27" s="12"/>
+      <c r="J27" s="4">
+        <v>48</v>
+      </c>
+      <c r="K27" t="s">
+        <v>302</v>
+      </c>
+      <c r="L27" t="s">
+        <v>303</v>
+      </c>
+      <c r="M27" t="s">
+        <v>304</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I28" s="12"/>
+      <c r="J28" s="4">
+        <v>60</v>
+      </c>
+      <c r="K28" t="s">
+        <v>276</v>
+      </c>
+      <c r="L28" t="s">
+        <v>277</v>
+      </c>
+      <c r="M28" t="s">
+        <v>278</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I29" s="12">
+        <v>800</v>
+      </c>
+      <c r="J29" s="4">
+        <v>10</v>
+      </c>
+      <c r="K29" t="s">
+        <v>287</v>
+      </c>
+      <c r="L29" t="s">
+        <v>288</v>
+      </c>
+      <c r="M29" t="s">
+        <v>289</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I30" s="12"/>
+      <c r="J30" s="4">
+        <v>22</v>
+      </c>
+      <c r="K30" t="s">
+        <v>292</v>
+      </c>
+      <c r="L30" t="s">
+        <v>293</v>
+      </c>
+      <c r="M30" t="s">
+        <v>294</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I31" s="12"/>
+      <c r="J31" s="4">
+        <v>34</v>
+      </c>
+      <c r="K31" t="s">
+        <v>297</v>
+      </c>
+      <c r="L31" t="s">
+        <v>298</v>
+      </c>
+      <c r="M31" t="s">
+        <v>299</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I32" s="12"/>
+      <c r="J32" s="4">
+        <v>48</v>
+      </c>
+      <c r="K32" t="s">
+        <v>302</v>
+      </c>
+      <c r="L32" t="s">
+        <v>303</v>
+      </c>
+      <c r="M32" t="s">
+        <v>304</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="9:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I33" s="12"/>
+      <c r="J33" s="4">
+        <v>60</v>
+      </c>
+      <c r="K33" t="s">
+        <v>276</v>
+      </c>
+      <c r="L33" t="s">
+        <v>277</v>
+      </c>
+      <c r="M33" t="s">
+        <v>278</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>269</v>
+      </c>
+      <c r="K40" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F54DFF4-00B5-4F73-8D19-5E94DFED4998}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Simulaciones.xlsx
+++ b/Simulaciones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="5" xr2:uid="{AD750724-818A-43DE-A945-75688A4736C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="7" xr2:uid="{AD750724-818A-43DE-A945-75688A4736C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Funciones discriminantes gaus" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="SVM" sheetId="8" r:id="rId5"/>
     <sheet name="SFS" sheetId="9" r:id="rId6"/>
     <sheet name="PCA" sheetId="10" r:id="rId7"/>
+    <sheet name="FISHER" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="413">
   <si>
     <t>linear</t>
   </si>
@@ -1396,6 +1397,450 @@
 2) 0.80386  
 3) 0.95136     
 4) 0.90246   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87024 </t>
+  </si>
+  <si>
+    <t>+-0.011684</t>
+  </si>
+  <si>
+    <t>0.12976</t>
+  </si>
+  <si>
+    <t>1) 0.85174     
+2) 0.89059     
+3) 0.88166     
+4) 0.89362</t>
+  </si>
+  <si>
+    <t>1) 0.88434    
+2) 0.78209     
+3) 0.90225      
+4) 0.7929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8805 </t>
+  </si>
+  <si>
+    <t>+-0.011418</t>
+  </si>
+  <si>
+    <t>0.1195</t>
+  </si>
+  <si>
+    <t>1) 0.86436     
+2) 0.90154     
+3) 0.88759     
+4) 0.90909</t>
+  </si>
+  <si>
+    <t>1) 0.88751     
+2) 0.78329     
+3) 0.91846     
+4) 0.83561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88417 </t>
+  </si>
+  <si>
+    <t>+-0.011396</t>
+  </si>
+  <si>
+    <t>0.11583</t>
+  </si>
+  <si>
+    <t>1) 0.86886     
+2) 0.90174     
+3) 0.89027     
+4) 0.92012</t>
+  </si>
+  <si>
+    <t>1) 0.88708     
+2) 0.80024     
+3) 0.92085     
+4) 0.84176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88673 </t>
+  </si>
+  <si>
+    <t>+-0.010106</t>
+  </si>
+  <si>
+    <t>0.11327</t>
+  </si>
+  <si>
+    <t>1) 0.87402     
+2) 0.90347     
+3) 0.88994     
+4) 0.92683</t>
+  </si>
+  <si>
+    <t>1) 0.88662     
+2) 0.80632     
+3) 0.92466     
+4) 0.84782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89077 </t>
+  </si>
+  <si>
+    <t>+-0.0097763</t>
+  </si>
+  <si>
+    <t>0.10923</t>
+  </si>
+  <si>
+    <t>1) 0.8779     
+2) 0.90651     
+3) 0.89529     
+4) 0.92573</t>
+  </si>
+  <si>
+    <t>1) 0.89252     
+2) 0.81115     
+3) 0.92848     
+4) 0.83873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89296 </t>
+  </si>
+  <si>
+    <t>+-0.01014</t>
+  </si>
+  <si>
+    <t>0.10704</t>
+  </si>
+  <si>
+    <t>1) 0.87911     
+2) 0.91246     
+3) 0.89758     
+4) 0.92599</t>
+  </si>
+  <si>
+    <t>1) 0.89568     
+2) 0.81963     
+3) 0.92657     
+4) 0.84479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89535 </t>
+  </si>
+  <si>
+    <t>+-0.0055649</t>
+  </si>
+  <si>
+    <t>0.10465</t>
+  </si>
+  <si>
+    <t>1) 0.88423     
+2) 0.86283     
+3) 0.91921     
+4) 0.91085</t>
+  </si>
+  <si>
+    <t>1) 0.89525     
+2) 0.87416     
+3) 0.90415     
+4) 0.89347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8662 </t>
+  </si>
+  <si>
+    <t>+-0.0093831</t>
+  </si>
+  <si>
+    <t>0.1338</t>
+  </si>
+  <si>
+    <t>1) 0.82606     
+2) 0.83171     
+3) 0.92094     
+4) 0.94094</t>
+  </si>
+  <si>
+    <t>1) 0.90659     
+2) 0.79781     
+3) 0.85219      
+4) 0.8571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85979 </t>
+  </si>
+  <si>
+    <t>+-0.011779</t>
+  </si>
+  <si>
+    <t>0.14021</t>
+  </si>
+  <si>
+    <t>1) 0.85411     
+2) 0.80248     
+3) 0.88647     
+4) 0.89465</t>
+  </si>
+  <si>
+    <t>1) 0.85307     
+2) 0.82564     
+3) 0.88081     
+4) 0.85691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84421 </t>
+  </si>
+  <si>
+    <t>+-0.012989</t>
+  </si>
+  <si>
+    <t>0.15579</t>
+  </si>
+  <si>
+    <t>1) 0.82222     
+2) 0.78202     
+3) 0.88836     
+4) 0.89353</t>
+  </si>
+  <si>
+    <t>1) 0.86214     
+2) 0.76995     
+3) 0.85219     
+4) 0.85994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81966 </t>
+  </si>
+  <si>
+    <t>+-0.018644</t>
+  </si>
+  <si>
+    <t>0.18034</t>
+  </si>
+  <si>
+    <t>1) 0.8046     
+2) 0.74231     
+3) 0.86688     
+4) 0.84534</t>
+  </si>
+  <si>
+    <t>1) 0.82087      
+2) 0.7711     
+3) 0.83646     
+4) 0.82633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80408 </t>
+  </si>
+  <si>
+    <t>+-0.011905</t>
+  </si>
+  <si>
+    <t>0.19592</t>
+  </si>
+  <si>
+    <t>1) 0.79352     
+2) 0.72397     
+3) 0.85062      
+4) 0.8039</t>
+  </si>
+  <si>
+    <t>1) 0.80091      
+2) 0.7421     
+3) 0.82786     
+4) 0.82945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.78941 </t>
+  </si>
+  <si>
+    <t>+-0.010656</t>
+  </si>
+  <si>
+    <t>0.21059</t>
+  </si>
+  <si>
+    <t>1) 0.77693     
+2) 0.68821     
+3) 0.85086     
+4) 0.78218</t>
+  </si>
+  <si>
+    <t>1) 0.79227     
+2) 0.71669      
+3) 0.8083     
+4) 0.83258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77896 </t>
+  </si>
+  <si>
+    <t>+-0.0072296</t>
+  </si>
+  <si>
+    <t>0.22104</t>
+  </si>
+  <si>
+    <t>1) 0.77019     
+2) 0.68824     
+3) 0.83226      
+4) 0.7655</t>
+  </si>
+  <si>
+    <t>1) 0.77503     
+2) 0.71669     
+3) 0.79686     
+4) 0.84773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7522 </t>
+  </si>
+  <si>
+    <t>+-0.0073024</t>
+  </si>
+  <si>
+    <t>0.2478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 0.75018     
+2) 0.64699
+3) 0.8165      
+4) 0.7043      </t>
+  </si>
+  <si>
+    <t>1) 0.75418     
+2) 0.69857     
+3) 0.75107     
+4) 0.88116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84788 </t>
+  </si>
+  <si>
+    <t>+-0.019792</t>
+  </si>
+  <si>
+    <t>0.15212</t>
+  </si>
+  <si>
+    <t>1) 0.82609      
+2) 0.8172     
+3) 0.89313     
+4) 0.81042</t>
+  </si>
+  <si>
+    <t>1) 0.87712     
+2) 0.75782     
+3) 0.86744     
+4) 0.75303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89241 </t>
+  </si>
+  <si>
+    <t>+-0.010981</t>
+  </si>
+  <si>
+    <t>0.10759</t>
+  </si>
+  <si>
+    <t>1) 0.88715     
+2) 0.85715     
+3) 0.90916     
+4) 0.91898</t>
+  </si>
+  <si>
+    <t>1) 0.89206     
+2) 0.84271      
+3) 0.9237     
+4) 0.81998</t>
+  </si>
+  <si>
+    <t>1) 0.82609
+2) 0.8172     
+3) 0.89313     
+4) 0.81042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90341 </t>
+  </si>
+  <si>
+    <t>+-0.011521</t>
+  </si>
+  <si>
+    <t>0.09659</t>
+  </si>
+  <si>
+    <t>1) 0.88787     
+2) 0.89318     
+3) 0.92005     
+4) 0.94249</t>
+  </si>
+  <si>
+    <t>1) 0.90249     
+2) 0.84505     
+3) 0.93135     
+4) 0.87813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90689 </t>
+  </si>
+  <si>
+    <t>+-0.011854</t>
+  </si>
+  <si>
+    <t>0.093107</t>
+  </si>
+  <si>
+    <t>1) 0.89201     
+2) 0.90245     
+3) 0.92392      
+4) 0.9175</t>
+  </si>
+  <si>
+    <t>1) 0.91201     
+2) 0.85483     
+3) 0.92706     
+4) 0.87491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91074 </t>
+  </si>
+  <si>
+    <t>+-0.013482</t>
+  </si>
+  <si>
+    <t>0.089258</t>
+  </si>
+  <si>
+    <t>1) 0.89599     
+2) 0.90485     
+3) 0.92616     
+4) 0.93826</t>
+  </si>
+  <si>
+    <t>1) 0.91383     
+2) 0.87661     
+3) 0.92801     
+4) 0.86581</t>
+  </si>
+  <si>
+    <t>1) 0.8878     
+2) 0.85546     
+3) 0.90885     
+4) 0.92238</t>
+  </si>
+  <si>
+    <t>1) 0.89025     
+2) 0.84633     
+3) 0.92466     
+4) 0.81695</t>
+  </si>
+  <si>
+    <t>Indice de Fisher: 7.334    0.050552     0.51083      1.2286      2.7777      3.8805      5.5981      3.1569      6.7229      5.4068      3.3557     0.80573      1.1091     0.67298      4.0026     0.94818      2.9575      3.5536      7.6298      9.6964      1.7843      1.3995      6.4868      6.0604</t>
+  </si>
+  <si>
+    <t>Indice de Fisher Normalizado: 0.75636   0.0052135    0.052683     0.12671     0.28647      0.4002     0.57733     0.32557     0.69334     0.55761     0.34607    0.083096     0.11439    0.069405     0.41279    0.097788     0.30501     0.36649     0.78687           1     0.18402     0.14433     0.66899     0.62502</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1485,6 +1930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2201,7 +2647,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3526,8 +3972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B46F55-8DD8-47CD-ADC8-14B240A23EDA}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24:I28"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4436,12 +4882,887 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F54DFF4-00B5-4F73-8D19-5E94DFED4998}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>318</v>
+      </c>
+      <c r="J5" t="s">
+        <v>319</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>20</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>30</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
+        <v>333</v>
+      </c>
+      <c r="J8" t="s">
+        <v>334</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>40</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>50</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>100</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>383</v>
+      </c>
+      <c r="D14" t="s">
+        <v>384</v>
+      </c>
+      <c r="E14" t="s">
+        <v>385</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D15" t="s">
+        <v>389</v>
+      </c>
+      <c r="E15" t="s">
+        <v>390</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="4">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D16" t="s">
+        <v>395</v>
+      </c>
+      <c r="E16" t="s">
+        <v>396</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="4">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>399</v>
+      </c>
+      <c r="D17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E17" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="4">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>404</v>
+      </c>
+      <c r="D18" t="s">
+        <v>405</v>
+      </c>
+      <c r="E18" t="s">
+        <v>406</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>100</v>
+      </c>
+      <c r="B19" s="4">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>383</v>
+      </c>
+      <c r="D19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E19" t="s">
+        <v>385</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="4">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>388</v>
+      </c>
+      <c r="D20" t="s">
+        <v>389</v>
+      </c>
+      <c r="E20" t="s">
+        <v>390</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="4">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>394</v>
+      </c>
+      <c r="D21" t="s">
+        <v>395</v>
+      </c>
+      <c r="E21" t="s">
+        <v>396</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="4">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D22" t="s">
+        <v>400</v>
+      </c>
+      <c r="E22" t="s">
+        <v>401</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="4">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>404</v>
+      </c>
+      <c r="D23" t="s">
+        <v>405</v>
+      </c>
+      <c r="E23" t="s">
+        <v>406</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>400</v>
+      </c>
+      <c r="B24" s="4">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>383</v>
+      </c>
+      <c r="D24" t="s">
+        <v>384</v>
+      </c>
+      <c r="E24" t="s">
+        <v>385</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="4">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>388</v>
+      </c>
+      <c r="D25" t="s">
+        <v>389</v>
+      </c>
+      <c r="E25" t="s">
+        <v>390</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="4">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>394</v>
+      </c>
+      <c r="D26" t="s">
+        <v>395</v>
+      </c>
+      <c r="E26" t="s">
+        <v>396</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="4">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>399</v>
+      </c>
+      <c r="D27" t="s">
+        <v>400</v>
+      </c>
+      <c r="E27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="4">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>404</v>
+      </c>
+      <c r="D28" t="s">
+        <v>405</v>
+      </c>
+      <c r="E28" t="s">
+        <v>406</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>800</v>
+      </c>
+      <c r="B29" s="4">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>383</v>
+      </c>
+      <c r="D29" t="s">
+        <v>384</v>
+      </c>
+      <c r="E29" t="s">
+        <v>385</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="4">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>388</v>
+      </c>
+      <c r="D30" t="s">
+        <v>389</v>
+      </c>
+      <c r="E30" t="s">
+        <v>390</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="4">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>394</v>
+      </c>
+      <c r="D31" t="s">
+        <v>395</v>
+      </c>
+      <c r="E31" t="s">
+        <v>396</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="4">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>399</v>
+      </c>
+      <c r="D32" t="s">
+        <v>400</v>
+      </c>
+      <c r="E32" t="s">
+        <v>401</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="4">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D33" t="s">
+        <v>405</v>
+      </c>
+      <c r="E33" t="s">
+        <v>406</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B182539-D100-4ABD-A75D-35A33A587E5A}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="238.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" s="15"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>